--- a/物电学院2023-2024学年班委通讯录.xlsx
+++ b/物电学院2023-2024学年班委通讯录.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="313">
   <si>
     <t>物电学院2023-2024学年班委通讯录</t>
   </si>
@@ -966,9 +966,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1025,9 +1025,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1041,16 +1048,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1058,30 +1065,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1096,19 +1079,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1116,24 +1093,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1148,16 +1125,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1182,7 +1182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,13 +1194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,133 +1206,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,7 +1224,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,6 +1673,21 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1692,17 +1707,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1724,26 +1733,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1766,10 +1759,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1779,142 +1779,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1924,7 +1924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2028,9 +2028,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2378,11 +2375,11 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M79" sqref="M79:M82"/>
+      <selection pane="bottomRight" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="15"/>
@@ -3233,7 +3230,7 @@
       <c r="E26" s="9">
         <v>18889208689</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="41" t="s">
         <v>135</v>
       </c>
       <c r="G26" s="9">
@@ -3428,7 +3425,7 @@
       <c r="L31" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="M31" s="35" t="s">
+      <c r="M31" s="5" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3447,7 +3444,7 @@
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="32"/>
-      <c r="M32" s="35"/>
+      <c r="M32" s="5"/>
     </row>
     <row r="33" customHeight="1" spans="1:13">
       <c r="A33" s="5"/>
@@ -3482,7 +3479,7 @@
       <c r="L33" s="34">
         <v>13603617477</v>
       </c>
-      <c r="M33" s="35"/>
+      <c r="M33" s="5"/>
     </row>
     <row r="34" customHeight="1" spans="1:13">
       <c r="A34" s="5"/>
@@ -3499,7 +3496,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="33"/>
-      <c r="M34" s="35"/>
+      <c r="M34" s="5"/>
     </row>
     <row r="35" customHeight="1" spans="1:13">
       <c r="A35" s="5">
@@ -3536,7 +3533,9 @@
         <v>178</v>
       </c>
       <c r="L35" s="34"/>
-      <c r="M35" s="35"/>
+      <c r="M35" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="36" customHeight="1" spans="1:13">
       <c r="A36" s="5"/>
@@ -3553,7 +3552,7 @@
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="32"/>
-      <c r="M36" s="35"/>
+      <c r="M36" s="5"/>
     </row>
     <row r="37" customHeight="1" spans="1:13">
       <c r="A37" s="5"/>
@@ -3586,7 +3585,7 @@
         <v>15379231895</v>
       </c>
       <c r="L37" s="34"/>
-      <c r="M37" s="35"/>
+      <c r="M37" s="5"/>
     </row>
     <row r="38" customHeight="1" spans="1:13">
       <c r="A38" s="5"/>
@@ -3603,7 +3602,7 @@
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="32"/>
-      <c r="M38" s="35"/>
+      <c r="M38" s="5"/>
     </row>
     <row r="39" customHeight="1" spans="1:13">
       <c r="A39" s="5">
@@ -3640,7 +3639,9 @@
         <v>189</v>
       </c>
       <c r="L39" s="34"/>
-      <c r="M39" s="35"/>
+      <c r="M39" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="40" customHeight="1" spans="1:13">
       <c r="A40" s="5"/>
@@ -3657,7 +3658,7 @@
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="32"/>
-      <c r="M40" s="35"/>
+      <c r="M40" s="5"/>
     </row>
     <row r="41" customHeight="1" spans="1:13">
       <c r="A41" s="5"/>
@@ -3690,7 +3691,7 @@
         <v>18307513979</v>
       </c>
       <c r="L41" s="34"/>
-      <c r="M41" s="35"/>
+      <c r="M41" s="5"/>
     </row>
     <row r="42" customHeight="1" spans="1:13">
       <c r="A42" s="5"/>
@@ -3707,7 +3708,7 @@
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="32"/>
-      <c r="M42" s="35"/>
+      <c r="M42" s="5"/>
     </row>
     <row r="43" customHeight="1" spans="1:13">
       <c r="A43" s="5">
@@ -3742,7 +3743,9 @@
         <v>199</v>
       </c>
       <c r="L43" s="34"/>
-      <c r="M43" s="35"/>
+      <c r="M43" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="44" customHeight="1" spans="1:13">
       <c r="A44" s="5"/>
@@ -3759,7 +3762,7 @@
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
       <c r="L44" s="32"/>
-      <c r="M44" s="35"/>
+      <c r="M44" s="5"/>
     </row>
     <row r="45" customHeight="1" spans="1:13">
       <c r="A45" s="5"/>
@@ -3790,7 +3793,7 @@
         <v>19199528098</v>
       </c>
       <c r="L45" s="34"/>
-      <c r="M45" s="35"/>
+      <c r="M45" s="5"/>
     </row>
     <row r="46" customHeight="1" spans="1:13">
       <c r="A46" s="5"/>
@@ -3807,7 +3810,7 @@
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="32"/>
-      <c r="M46" s="35"/>
+      <c r="M46" s="5"/>
     </row>
     <row r="47" customHeight="1" spans="1:13">
       <c r="A47" s="5">
@@ -3846,7 +3849,9 @@
       <c r="L47" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="M47" s="35"/>
+      <c r="M47" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="48" customHeight="1" spans="1:13">
       <c r="A48" s="5"/>
@@ -3863,7 +3868,7 @@
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="32"/>
-      <c r="M48" s="35"/>
+      <c r="M48" s="5"/>
     </row>
     <row r="49" customHeight="1" spans="1:13">
       <c r="A49" s="5"/>
@@ -3898,7 +3903,7 @@
       <c r="L49" s="34">
         <v>17330835498</v>
       </c>
-      <c r="M49" s="35"/>
+      <c r="M49" s="5"/>
     </row>
     <row r="50" customHeight="1" spans="1:13">
       <c r="A50" s="5"/>
@@ -3915,7 +3920,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
       <c r="L50" s="32"/>
-      <c r="M50" s="35"/>
+      <c r="M50" s="5"/>
     </row>
     <row r="51" customHeight="1" spans="1:13">
       <c r="A51" s="5">
@@ -3954,7 +3959,7 @@
       <c r="L51" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="M51" s="35" t="s">
+      <c r="M51" s="5" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3973,7 +3978,7 @@
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="32"/>
-      <c r="M52" s="35"/>
+      <c r="M52" s="5"/>
     </row>
     <row r="53" customHeight="1" spans="1:13">
       <c r="A53" s="5"/>
@@ -4008,7 +4013,7 @@
       <c r="L53" s="34">
         <v>15778982785</v>
       </c>
-      <c r="M53" s="35"/>
+      <c r="M53" s="5"/>
     </row>
     <row r="54" customHeight="1" spans="1:13">
       <c r="A54" s="5"/>
@@ -4025,7 +4030,7 @@
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
       <c r="L54" s="32"/>
-      <c r="M54" s="35"/>
+      <c r="M54" s="5"/>
     </row>
     <row r="55" customHeight="1" spans="1:13">
       <c r="A55" s="5">
@@ -4064,7 +4069,9 @@
       <c r="L55" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="M55" s="35"/>
+      <c r="M55" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="56" customHeight="1" spans="1:13">
       <c r="A56" s="5"/>
@@ -4099,7 +4106,7 @@
       <c r="L56" s="31">
         <v>15725587762</v>
       </c>
-      <c r="M56" s="35"/>
+      <c r="M56" s="5"/>
     </row>
     <row r="57" customHeight="1" spans="1:13">
       <c r="A57" s="5">
@@ -4138,7 +4145,7 @@
       <c r="L57" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="M57" s="35" t="s">
+      <c r="M57" s="5" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4157,7 +4164,7 @@
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
       <c r="L58" s="32"/>
-      <c r="M58" s="35"/>
+      <c r="M58" s="5"/>
     </row>
     <row r="59" customHeight="1" spans="1:13">
       <c r="A59" s="5"/>
@@ -4192,7 +4199,7 @@
       <c r="L59" s="34">
         <v>15887324542</v>
       </c>
-      <c r="M59" s="35"/>
+      <c r="M59" s="5"/>
     </row>
     <row r="60" customHeight="1" spans="1:13">
       <c r="A60" s="5"/>
@@ -4209,7 +4216,7 @@
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
       <c r="L60" s="32"/>
-      <c r="M60" s="35"/>
+      <c r="M60" s="5"/>
     </row>
     <row r="61" customHeight="1" spans="1:13">
       <c r="A61" s="5">
@@ -4248,7 +4255,9 @@
       <c r="L61" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="M61" s="35"/>
+      <c r="M61" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="62" customHeight="1" spans="1:13">
       <c r="A62" s="5"/>
@@ -4265,7 +4274,7 @@
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
       <c r="L62" s="32"/>
-      <c r="M62" s="35"/>
+      <c r="M62" s="5"/>
     </row>
     <row r="63" customHeight="1" spans="1:13">
       <c r="A63" s="5"/>
@@ -4300,7 +4309,7 @@
       <c r="L63" s="34">
         <v>18370202431</v>
       </c>
-      <c r="M63" s="35"/>
+      <c r="M63" s="5"/>
     </row>
     <row r="64" customHeight="1" spans="1:13">
       <c r="A64" s="5"/>
@@ -4317,7 +4326,7 @@
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
       <c r="L64" s="32"/>
-      <c r="M64" s="35"/>
+      <c r="M64" s="5"/>
     </row>
     <row r="65" customHeight="1" spans="1:13">
       <c r="A65" s="5">
@@ -4354,7 +4363,9 @@
         <v>264</v>
       </c>
       <c r="L65" s="34"/>
-      <c r="M65" s="35"/>
+      <c r="M65" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="66" customHeight="1" spans="1:13">
       <c r="A66" s="5"/>
@@ -4371,7 +4382,7 @@
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
       <c r="L66" s="32"/>
-      <c r="M66" s="35"/>
+      <c r="M66" s="5"/>
     </row>
     <row r="67" customHeight="1" spans="1:13">
       <c r="A67" s="5"/>
@@ -4404,7 +4415,7 @@
         <v>17886749096</v>
       </c>
       <c r="L67" s="34"/>
-      <c r="M67" s="35"/>
+      <c r="M67" s="5"/>
     </row>
     <row r="68" customHeight="1" spans="1:13">
       <c r="A68" s="5"/>
@@ -4421,7 +4432,7 @@
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
       <c r="L68" s="32"/>
-      <c r="M68" s="35"/>
+      <c r="M68" s="5"/>
     </row>
     <row r="69" customHeight="1" spans="1:13">
       <c r="A69" s="5">
@@ -4458,7 +4469,9 @@
       <c r="L69" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="M69" s="35"/>
+      <c r="M69" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="70" customHeight="1" spans="1:13">
       <c r="A70" s="5"/>
@@ -4475,7 +4488,7 @@
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
       <c r="L70" s="32"/>
-      <c r="M70" s="35"/>
+      <c r="M70" s="5"/>
     </row>
     <row r="71" customHeight="1" spans="1:13">
       <c r="A71" s="5"/>
@@ -4508,7 +4521,7 @@
       <c r="L71" s="34">
         <v>15508975527</v>
       </c>
-      <c r="M71" s="35"/>
+      <c r="M71" s="5"/>
     </row>
     <row r="72" customHeight="1" spans="1:13">
       <c r="A72" s="5"/>
@@ -4525,7 +4538,7 @@
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
       <c r="L72" s="32"/>
-      <c r="M72" s="35"/>
+      <c r="M72" s="5"/>
     </row>
     <row r="73" customHeight="1" spans="1:13">
       <c r="A73" s="5">
@@ -4564,7 +4577,9 @@
       <c r="L73" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="M73" s="35"/>
+      <c r="M73" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="74" customHeight="1" spans="1:13">
       <c r="A74" s="5"/>
@@ -4583,7 +4598,7 @@
       </c>
       <c r="K74" s="13"/>
       <c r="L74" s="32"/>
-      <c r="M74" s="35"/>
+      <c r="M74" s="5"/>
     </row>
     <row r="75" customHeight="1" spans="1:13">
       <c r="A75" s="5"/>
@@ -4618,7 +4633,7 @@
       <c r="L75" s="34">
         <v>17856077380</v>
       </c>
-      <c r="M75" s="35"/>
+      <c r="M75" s="5"/>
     </row>
     <row r="76" customHeight="1" spans="1:13">
       <c r="A76" s="5"/>
@@ -4637,7 +4652,7 @@
       </c>
       <c r="K76" s="13"/>
       <c r="L76" s="32"/>
-      <c r="M76" s="35"/>
+      <c r="M76" s="5"/>
     </row>
     <row r="77" customHeight="1" spans="1:13">
       <c r="A77" s="5">
@@ -4646,7 +4661,7 @@
       <c r="B77" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="23" t="s">
         <v>292</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -4674,12 +4689,14 @@
         <v>300</v>
       </c>
       <c r="L77" s="30"/>
-      <c r="M77" s="35"/>
+      <c r="M77" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="78" customHeight="1" spans="1:13">
       <c r="A78" s="5"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="9">
+      <c r="B78" s="35"/>
+      <c r="C78" s="23">
         <v>13872665030</v>
       </c>
       <c r="D78" s="9">
@@ -4707,7 +4724,7 @@
         <v>13305918809</v>
       </c>
       <c r="L78" s="30"/>
-      <c r="M78" s="35"/>
+      <c r="M78" s="5"/>
     </row>
     <row r="79" customHeight="1" spans="1:13">
       <c r="A79" s="5">
@@ -4744,7 +4761,9 @@
         <v>310</v>
       </c>
       <c r="L79" s="34"/>
-      <c r="M79" s="35"/>
+      <c r="M79" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="80" customHeight="1" spans="1:13">
       <c r="A80" s="5"/>
@@ -4761,7 +4780,7 @@
       <c r="J80" s="13"/>
       <c r="K80" s="13"/>
       <c r="L80" s="32"/>
-      <c r="M80" s="35"/>
+      <c r="M80" s="5"/>
     </row>
     <row r="81" customHeight="1" spans="1:13">
       <c r="A81" s="5"/>
@@ -4794,24 +4813,24 @@
         <v>13778844160</v>
       </c>
       <c r="L81" s="34"/>
-      <c r="M81" s="35"/>
+      <c r="M81" s="5"/>
     </row>
     <row r="82" customHeight="1" spans="1:13">
       <c r="A82" s="5"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="40">
+      <c r="B82" s="36"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="39">
         <v>13379975113</v>
       </c>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="35"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="5"/>
     </row>
     <row r="83" spans="2:12">
       <c r="B83" s="5" t="s">
